--- a/Code/Results/Cases/Case_5_188/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_188/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.86453750768429</v>
+        <v>15.67081492403954</v>
       </c>
       <c r="C2">
-        <v>8.012428638788096</v>
+        <v>4.920529886061695</v>
       </c>
       <c r="D2">
-        <v>5.565627328683659</v>
+        <v>7.999223543718799</v>
       </c>
       <c r="E2">
-        <v>5.985555021603813</v>
+        <v>10.171690038876</v>
       </c>
       <c r="F2">
-        <v>30.96756830638828</v>
+        <v>39.13785774348465</v>
       </c>
       <c r="I2">
-        <v>22.89354887202893</v>
+        <v>32.23090148857825</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.47600029522141</v>
+        <v>13.68377707550449</v>
       </c>
       <c r="L2">
-        <v>6.511235892316142</v>
+        <v>10.40803754457155</v>
       </c>
       <c r="M2">
-        <v>10.78847445672787</v>
+        <v>15.90298431543088</v>
       </c>
       <c r="N2">
-        <v>15.68027525447562</v>
+        <v>23.27016272231283</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.01514482884862</v>
+        <v>15.51084573806486</v>
       </c>
       <c r="C3">
-        <v>7.479667416169086</v>
+        <v>4.652768619461256</v>
       </c>
       <c r="D3">
-        <v>5.608235063332759</v>
+        <v>8.004217635475538</v>
       </c>
       <c r="E3">
-        <v>5.995780714675738</v>
+        <v>10.18728975260468</v>
       </c>
       <c r="F3">
-        <v>30.24146699052662</v>
+        <v>39.08171923743665</v>
       </c>
       <c r="I3">
-        <v>22.71252336159248</v>
+        <v>32.26242961528229</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.79386298092182</v>
+        <v>13.56592547323185</v>
       </c>
       <c r="L3">
-        <v>6.430968113490418</v>
+        <v>10.41772352254618</v>
       </c>
       <c r="M3">
-        <v>10.47526216615973</v>
+        <v>15.89026421742997</v>
       </c>
       <c r="N3">
-        <v>15.84655571480727</v>
+        <v>23.32136920468548</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.47582355196053</v>
+        <v>15.41588974984381</v>
       </c>
       <c r="C4">
-        <v>7.135751392433733</v>
+        <v>4.479307964505526</v>
       </c>
       <c r="D4">
-        <v>5.634401343611138</v>
+        <v>8.007336526809727</v>
       </c>
       <c r="E4">
-        <v>6.003727514689393</v>
+        <v>10.19768113381811</v>
       </c>
       <c r="F4">
-        <v>29.81060490174803</v>
+        <v>39.05552495011164</v>
       </c>
       <c r="I4">
-        <v>22.6153239510675</v>
+        <v>32.28709074116808</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.36248139034225</v>
+        <v>13.49652669539644</v>
       </c>
       <c r="L4">
-        <v>6.384463896890415</v>
+        <v>10.42513447020948</v>
       </c>
       <c r="M4">
-        <v>10.28447218297007</v>
+        <v>15.88529043399297</v>
       </c>
       <c r="N4">
-        <v>15.95291921181251</v>
+        <v>23.35470868525066</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.2517876658434</v>
+        <v>15.37805888224996</v>
       </c>
       <c r="C5">
-        <v>6.991344827559402</v>
+        <v>4.406370221192251</v>
       </c>
       <c r="D5">
-        <v>5.645076835464876</v>
+        <v>8.008620847805497</v>
       </c>
       <c r="E5">
-        <v>6.007378595919236</v>
+        <v>10.20212056106499</v>
       </c>
       <c r="F5">
-        <v>29.63887880556207</v>
+        <v>39.04693701677872</v>
       </c>
       <c r="I5">
-        <v>22.57912265279058</v>
+        <v>32.29847254409292</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.18372759905536</v>
+        <v>13.46902004518511</v>
       </c>
       <c r="L5">
-        <v>6.366212571472002</v>
+        <v>10.42852285962408</v>
       </c>
       <c r="M5">
-        <v>10.20720219790055</v>
+        <v>15.88397935991169</v>
       </c>
       <c r="N5">
-        <v>15.99732262619188</v>
+        <v>23.36877271179199</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.21433678462225</v>
+        <v>15.3718305368675</v>
       </c>
       <c r="C6">
-        <v>6.967108175514181</v>
+        <v>4.394123872829045</v>
       </c>
       <c r="D6">
-        <v>5.646850565337724</v>
+        <v>8.008834918770487</v>
       </c>
       <c r="E6">
-        <v>6.008009587705002</v>
+        <v>10.20287010893349</v>
       </c>
       <c r="F6">
-        <v>29.61059909233112</v>
+        <v>39.04563714665295</v>
       </c>
       <c r="I6">
-        <v>22.57331432689585</v>
+        <v>32.30044290319895</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.15387318381197</v>
+        <v>13.46450014566092</v>
       </c>
       <c r="L6">
-        <v>6.363224190020427</v>
+        <v>10.42910775522105</v>
       </c>
       <c r="M6">
-        <v>10.19440334690764</v>
+        <v>15.88380495520749</v>
       </c>
       <c r="N6">
-        <v>16.00475941163659</v>
+        <v>23.37113691341548</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.47281904498613</v>
+        <v>15.41537599349645</v>
       </c>
       <c r="C7">
-        <v>7.133821156234861</v>
+        <v>4.47833337693949</v>
       </c>
       <c r="D7">
-        <v>5.634545251936212</v>
+        <v>8.007353793388146</v>
       </c>
       <c r="E7">
-        <v>6.003775092217504</v>
+        <v>10.19774017550417</v>
       </c>
       <c r="F7">
-        <v>29.80827322496203</v>
+        <v>39.05540067611001</v>
       </c>
       <c r="I7">
-        <v>22.6148220618987</v>
+        <v>32.28723884804805</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.36008236397412</v>
+        <v>13.49615256043135</v>
       </c>
       <c r="L7">
-        <v>6.384214921155978</v>
+        <v>10.42517867535329</v>
       </c>
       <c r="M7">
-        <v>10.28342802626666</v>
+        <v>15.88526985115366</v>
       </c>
       <c r="N7">
-        <v>15.95351377845775</v>
+        <v>23.35489642189019</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.5754736410062</v>
+        <v>15.61500622883878</v>
       </c>
       <c r="C8">
-        <v>7.832196929769172</v>
+        <v>4.830098539612255</v>
       </c>
       <c r="D8">
-        <v>5.580324462327988</v>
+        <v>8.0009346990607</v>
       </c>
       <c r="E8">
-        <v>5.9887304407738</v>
+        <v>10.17690030058457</v>
       </c>
       <c r="F8">
-        <v>30.71415733183249</v>
+        <v>39.1167875664426</v>
       </c>
       <c r="I8">
-        <v>22.82817654329972</v>
+        <v>32.24067115670103</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.24350661245605</v>
+        <v>13.64254477777401</v>
       </c>
       <c r="L8">
-        <v>6.482982952765172</v>
+        <v>10.41107367539833</v>
       </c>
       <c r="M8">
-        <v>10.68021826990942</v>
+        <v>15.89801136932094</v>
       </c>
       <c r="N8">
-        <v>15.73671448450769</v>
+        <v>23.28742500113151</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.58953823736711</v>
+        <v>16.03041317888718</v>
       </c>
       <c r="C9">
-        <v>9.07024243253972</v>
+        <v>5.447225721337789</v>
       </c>
       <c r="D9">
-        <v>5.473487287193176</v>
+        <v>7.988756511359727</v>
       </c>
       <c r="E9">
-        <v>5.97278504603301</v>
+        <v>10.14246741738069</v>
       </c>
       <c r="F9">
-        <v>32.60538522579039</v>
+        <v>39.30251150559771</v>
       </c>
       <c r="I9">
-        <v>23.36160907453498</v>
+        <v>32.19147216718071</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.09876932820301</v>
+        <v>13.95178599548904</v>
       </c>
       <c r="L9">
-        <v>6.698683470187931</v>
+        <v>10.39501275510289</v>
       </c>
       <c r="M9">
-        <v>11.46653100800234</v>
+        <v>15.94537612566926</v>
       </c>
       <c r="N9">
-        <v>15.34614322111655</v>
+        <v>23.17015333071658</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.98140161626299</v>
+        <v>16.34746526711157</v>
       </c>
       <c r="C10">
-        <v>9.902605234663357</v>
+        <v>5.855514113362812</v>
       </c>
       <c r="D10">
-        <v>5.393850479859452</v>
+        <v>7.980048883276543</v>
       </c>
       <c r="E10">
-        <v>5.969804836425384</v>
+        <v>10.12106829534417</v>
       </c>
       <c r="F10">
-        <v>34.06000197413078</v>
+        <v>39.4782820849949</v>
       </c>
       <c r="I10">
-        <v>23.82951600272663</v>
+        <v>32.1810514585062</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.43364431147648</v>
+        <v>14.19062155000902</v>
       </c>
       <c r="L10">
-        <v>6.870508573012659</v>
+        <v>10.39026118279254</v>
       </c>
       <c r="M10">
-        <v>12.04461084955119</v>
+        <v>15.99362533723012</v>
       </c>
       <c r="N10">
-        <v>15.08146356908358</v>
+        <v>23.09312848792201</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.65537300344788</v>
+        <v>16.49367675634403</v>
       </c>
       <c r="C11">
-        <v>10.26523963590273</v>
+        <v>6.03136069479659</v>
       </c>
       <c r="D11">
-        <v>5.357168916895846</v>
+        <v>7.976137439966094</v>
       </c>
       <c r="E11">
-        <v>5.970456578630617</v>
+        <v>10.11217483216917</v>
       </c>
       <c r="F11">
-        <v>34.73508807220417</v>
+        <v>39.56663885232348</v>
       </c>
       <c r="I11">
-        <v>24.0601235202781</v>
+        <v>32.18190047364126</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.01288128338047</v>
+        <v>14.30138320636042</v>
       </c>
       <c r="L11">
-        <v>6.95156142561999</v>
+        <v>10.38962382720508</v>
       </c>
       <c r="M11">
-        <v>12.30688407346707</v>
+        <v>16.01844655295976</v>
       </c>
       <c r="N11">
-        <v>14.96622706296578</v>
+        <v>23.06006447103059</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.90612578704039</v>
+        <v>16.54927801328272</v>
       </c>
       <c r="C12">
-        <v>10.40032534981792</v>
+        <v>6.096522621389722</v>
       </c>
       <c r="D12">
-        <v>5.343194464785237</v>
+        <v>7.974663265944256</v>
       </c>
       <c r="E12">
-        <v>5.971001922943866</v>
+        <v>10.10892765713568</v>
       </c>
       <c r="F12">
-        <v>34.99260310930469</v>
+        <v>39.60128997984646</v>
       </c>
       <c r="I12">
-        <v>24.15010399121381</v>
+        <v>32.18302528627876</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.22829412464495</v>
+        <v>14.34359398046486</v>
       </c>
       <c r="L12">
-        <v>6.982668664653749</v>
+        <v>10.3896009694151</v>
       </c>
       <c r="M12">
-        <v>12.40604742435905</v>
+        <v>16.02825388437267</v>
       </c>
       <c r="N12">
-        <v>14.92336798879695</v>
+        <v>23.04782753356896</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.85231886493406</v>
+        <v>16.53729368363027</v>
       </c>
       <c r="C13">
-        <v>10.37133054828631</v>
+        <v>6.082552386139155</v>
       </c>
       <c r="D13">
-        <v>5.346208161620083</v>
+        <v>7.974980446411991</v>
       </c>
       <c r="E13">
-        <v>5.97087103085309</v>
+        <v>10.10962163705696</v>
       </c>
       <c r="F13">
-        <v>34.93705979138512</v>
+        <v>39.59377446976414</v>
       </c>
       <c r="I13">
-        <v>24.13060538566891</v>
+        <v>32.18274732152745</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.18207439000968</v>
+        <v>14.33449180699859</v>
       </c>
       <c r="L13">
-        <v>6.97595074385802</v>
+        <v>10.38959618626667</v>
       </c>
       <c r="M13">
-        <v>12.38469839320851</v>
+        <v>16.02612363420489</v>
       </c>
       <c r="N13">
-        <v>14.93256320775645</v>
+        <v>23.050450364621</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.67609157087491</v>
+        <v>16.49824670394986</v>
       </c>
       <c r="C14">
-        <v>10.27639762992704</v>
+        <v>6.036750237594539</v>
       </c>
       <c r="D14">
-        <v>5.356021025476061</v>
+        <v>7.976016019210023</v>
       </c>
       <c r="E14">
-        <v>5.97049540216097</v>
+        <v>10.11190527047502</v>
       </c>
       <c r="F14">
-        <v>34.75623661587661</v>
+        <v>39.56946581824906</v>
       </c>
       <c r="I14">
-        <v>24.06747247858031</v>
+        <v>32.18197691706338</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.03068165482777</v>
+        <v>14.3048507547928</v>
       </c>
       <c r="L14">
-        <v>6.954112336267058</v>
+        <v>10.38961757188133</v>
       </c>
       <c r="M14">
-        <v>12.3150456504807</v>
+        <v>16.01924525946959</v>
       </c>
       <c r="N14">
-        <v>14.96268519560441</v>
+        <v>23.05905204699991</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.56756835181513</v>
+        <v>16.47435828370176</v>
       </c>
       <c r="C15">
-        <v>10.21795935364652</v>
+        <v>6.008509080215772</v>
       </c>
       <c r="D15">
-        <v>5.362020174239437</v>
+        <v>7.976651245459429</v>
       </c>
       <c r="E15">
-        <v>5.97030450268284</v>
+        <v>10.11331975500767</v>
       </c>
       <c r="F15">
-        <v>34.6457202756427</v>
+        <v>39.55473086490601</v>
       </c>
       <c r="I15">
-        <v>24.02915048896478</v>
+        <v>32.18160961685633</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.93744015455187</v>
+        <v>14.28672854159024</v>
       </c>
       <c r="L15">
-        <v>6.940789619455076</v>
+        <v>10.38965910420987</v>
       </c>
       <c r="M15">
-        <v>12.27235990982162</v>
+        <v>16.01508504545792</v>
       </c>
       <c r="N15">
-        <v>14.98123831460902</v>
+        <v>23.06435776150712</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.93672637473458</v>
+        <v>16.33794553951184</v>
       </c>
       <c r="C16">
-        <v>9.878589560454261</v>
+        <v>5.843822652250121</v>
       </c>
       <c r="D16">
-        <v>5.396237012509025</v>
+        <v>7.980305493217377</v>
       </c>
       <c r="E16">
-        <v>5.969803467385564</v>
+        <v>10.12166639820328</v>
       </c>
       <c r="F16">
-        <v>34.01614796568307</v>
+        <v>39.47267548008034</v>
       </c>
       <c r="I16">
-        <v>23.81481112706619</v>
+        <v>32.18110841784942</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.39523430761584</v>
+        <v>14.18342246244547</v>
       </c>
       <c r="L16">
-        <v>6.865269587305967</v>
+        <v>10.39033344938797</v>
       </c>
       <c r="M16">
-        <v>12.02745180369662</v>
+        <v>15.99206059660217</v>
       </c>
       <c r="N16">
-        <v>15.08910142765725</v>
+        <v>23.09532901369097</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.57809340465031</v>
+        <v>16.25473227284353</v>
       </c>
       <c r="C17">
-        <v>9.666341487190858</v>
+        <v>5.740256028934024</v>
       </c>
       <c r="D17">
-        <v>5.417098863230215</v>
+        <v>7.982559883858029</v>
       </c>
       <c r="E17">
-        <v>5.970017071677145</v>
+        <v>10.12700196212962</v>
       </c>
       <c r="F17">
-        <v>33.63330963823955</v>
+        <v>39.42447769505469</v>
       </c>
       <c r="I17">
-        <v>23.68793954193572</v>
+        <v>32.18223234306669</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.05550196115039</v>
+        <v>14.12056329490608</v>
       </c>
       <c r="L17">
-        <v>6.819679250711907</v>
+        <v>10.39113705548434</v>
       </c>
       <c r="M17">
-        <v>11.87698822394817</v>
+        <v>15.9786681243238</v>
       </c>
       <c r="N17">
-        <v>15.15661892260533</v>
+        <v>23.11483448443402</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.37236481441072</v>
+        <v>16.20705989357783</v>
       </c>
       <c r="C18">
-        <v>9.54275057392025</v>
+        <v>5.679756932961864</v>
       </c>
       <c r="D18">
-        <v>5.42905649200303</v>
+        <v>7.983861236152974</v>
       </c>
       <c r="E18">
-        <v>5.970328253256486</v>
+        <v>10.13015002791391</v>
       </c>
       <c r="F18">
-        <v>33.41437162178443</v>
+        <v>39.39754706446407</v>
       </c>
       <c r="I18">
-        <v>23.6166313259067</v>
+        <v>32.18340495094236</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.85745494829497</v>
+        <v>14.08460955379594</v>
       </c>
       <c r="L18">
-        <v>6.793728814767125</v>
+        <v>10.39174277504131</v>
       </c>
       <c r="M18">
-        <v>11.79038234182779</v>
+        <v>15.97123581623384</v>
       </c>
       <c r="N18">
-        <v>15.19593715867317</v>
+        <v>23.12623942610151</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.30235907585971</v>
+        <v>16.19095298147171</v>
       </c>
       <c r="C19">
-        <v>9.500643303261995</v>
+        <v>5.659113409033314</v>
       </c>
       <c r="D19">
-        <v>5.433098541058328</v>
+        <v>7.98430266094054</v>
       </c>
       <c r="E19">
-        <v>5.970465668487111</v>
+        <v>10.13122952100764</v>
       </c>
       <c r="F19">
-        <v>33.34046129511579</v>
+        <v>39.38856518894162</v>
       </c>
       <c r="I19">
-        <v>23.59277049993397</v>
+        <v>32.18389235104104</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.78994306716515</v>
+        <v>14.07247189031445</v>
       </c>
       <c r="L19">
-        <v>6.784989196801893</v>
+        <v>10.39197252799232</v>
       </c>
       <c r="M19">
-        <v>11.76105003349747</v>
+        <v>15.96876600028642</v>
       </c>
       <c r="N19">
-        <v>15.20933177119335</v>
+        <v>23.13013288354628</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.61600282949646</v>
+        <v>16.26357120492086</v>
       </c>
       <c r="C20">
-        <v>9.689091623832285</v>
+        <v>5.751377205552342</v>
       </c>
       <c r="D20">
-        <v>5.414882513696631</v>
+        <v>7.982319416118335</v>
       </c>
       <c r="E20">
-        <v>5.969974773144428</v>
+        <v>10.12642578895521</v>
       </c>
       <c r="F20">
-        <v>33.67393340139962</v>
+        <v>39.42952662381807</v>
       </c>
       <c r="I20">
-        <v>23.70127219546145</v>
+        <v>32.18205824612653</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.09193980995465</v>
+        <v>14.12723420023628</v>
       </c>
       <c r="L20">
-        <v>6.824504288806532</v>
+        <v>10.39103666250125</v>
       </c>
       <c r="M20">
-        <v>11.89301229385391</v>
+        <v>15.98006579544212</v>
       </c>
       <c r="N20">
-        <v>15.14938124378866</v>
+        <v>23.11273885497573</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.72797428117205</v>
+        <v>16.5097097991255</v>
       </c>
       <c r="C21">
-        <v>10.30434185456489</v>
+        <v>6.050242212418357</v>
       </c>
       <c r="D21">
-        <v>5.35314118468129</v>
+        <v>7.975711657399073</v>
       </c>
       <c r="E21">
-        <v>5.970597548907432</v>
+        <v>10.1112312422008</v>
       </c>
       <c r="F21">
-        <v>34.80929816257645</v>
+        <v>39.57657362819626</v>
       </c>
       <c r="I21">
-        <v>24.08594328170831</v>
+        <v>32.18218140740146</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.07525528336442</v>
+        <v>14.31355007411588</v>
       </c>
       <c r="L21">
-        <v>6.960515565501586</v>
+        <v>10.38960536631309</v>
       </c>
       <c r="M21">
-        <v>12.33550889356441</v>
+        <v>16.02125457140689</v>
       </c>
       <c r="N21">
-        <v>14.95381619866843</v>
+        <v>23.05651782753882</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.44961805276295</v>
+        <v>16.67191692635516</v>
       </c>
       <c r="C22">
-        <v>10.69344543000556</v>
+        <v>6.237246793382288</v>
       </c>
       <c r="D22">
-        <v>5.312290439563518</v>
+        <v>7.971433868372952</v>
       </c>
       <c r="E22">
-        <v>5.97274980343072</v>
+        <v>10.1020034287545</v>
       </c>
       <c r="F22">
-        <v>35.56224594904759</v>
+        <v>39.67961902022457</v>
       </c>
       <c r="I22">
-        <v>24.35286949301499</v>
+        <v>32.18694372269988</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.69504111379621</v>
+        <v>14.43686192659659</v>
       </c>
       <c r="L22">
-        <v>7.05182197679873</v>
+        <v>10.38994311624116</v>
       </c>
       <c r="M22">
-        <v>12.6237927845483</v>
+        <v>16.0505498100231</v>
       </c>
       <c r="N22">
-        <v>14.83056152119924</v>
+        <v>23.02142755720844</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.06681047507954</v>
+        <v>16.58523796788649</v>
       </c>
       <c r="C23">
-        <v>10.48693922586489</v>
+        <v>6.138201672313364</v>
       </c>
       <c r="D23">
-        <v>5.334145549133543</v>
+        <v>7.973713321793771</v>
       </c>
       <c r="E23">
-        <v>5.971437969253774</v>
+        <v>10.1068643094124</v>
       </c>
       <c r="F23">
-        <v>35.15939409859214</v>
+        <v>39.62399203833271</v>
       </c>
       <c r="I23">
-        <v>24.20895140791652</v>
+        <v>32.18397384482434</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.3663089793413</v>
+        <v>14.37091885319929</v>
       </c>
       <c r="L23">
-        <v>7.002869078152198</v>
+        <v>10.38964660076755</v>
       </c>
       <c r="M23">
-        <v>12.47002848064018</v>
+        <v>16.03469873142124</v>
       </c>
       <c r="N23">
-        <v>14.89591452167562</v>
+        <v>23.04000470438888</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.59887062254137</v>
+        <v>16.25957459640244</v>
       </c>
       <c r="C24">
-        <v>9.678811171821906</v>
+        <v>5.74635230289848</v>
       </c>
       <c r="D24">
-        <v>5.415884636464965</v>
+        <v>7.982428115122421</v>
       </c>
       <c r="E24">
-        <v>5.969993310294839</v>
+        <v>10.12668602583533</v>
       </c>
       <c r="F24">
-        <v>33.65556377831941</v>
+        <v>39.42724157559473</v>
       </c>
       <c r="I24">
-        <v>23.69523942727321</v>
+        <v>32.18213531537744</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.07547477011198</v>
+        <v>14.12421770542448</v>
       </c>
       <c r="L24">
-        <v>6.822322078963984</v>
+        <v>10.39108160245739</v>
       </c>
       <c r="M24">
-        <v>11.88576812650146</v>
+        <v>15.97943307563026</v>
       </c>
       <c r="N24">
-        <v>15.15265183883438</v>
+        <v>23.11368569405304</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.06136748223339</v>
+        <v>15.91575153478305</v>
       </c>
       <c r="C25">
-        <v>8.749111918993899</v>
+        <v>5.288155719959961</v>
       </c>
       <c r="D25">
-        <v>5.502525964773993</v>
+        <v>7.992008220991409</v>
       </c>
       <c r="E25">
-        <v>5.975600385362132</v>
+        <v>10.1510960593542</v>
       </c>
       <c r="F25">
-        <v>32.08199760959391</v>
+        <v>39.24531947206527</v>
       </c>
       <c r="I25">
-        <v>23.20437442201967</v>
+        <v>32.2002661831935</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.58175459242214</v>
+        <v>13.86594494381699</v>
       </c>
       <c r="L25">
-        <v>6.637980146420581</v>
+        <v>10.39811795454702</v>
       </c>
       <c r="M25">
-        <v>11.25344408002322</v>
+        <v>15.93018514185314</v>
       </c>
       <c r="N25">
-        <v>15.44799139003706</v>
+        <v>23.20027190510187</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_188/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_188/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.67081492403954</v>
+        <v>14.86453750768431</v>
       </c>
       <c r="C2">
-        <v>4.920529886061695</v>
+        <v>8.012428638787862</v>
       </c>
       <c r="D2">
-        <v>7.999223543718799</v>
+        <v>5.565627328683926</v>
       </c>
       <c r="E2">
-        <v>10.171690038876</v>
+        <v>5.98555502160375</v>
       </c>
       <c r="F2">
-        <v>39.13785774348465</v>
+        <v>30.96756830638844</v>
       </c>
       <c r="I2">
-        <v>32.23090148857825</v>
+        <v>22.89354887202905</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.68377707550449</v>
+        <v>12.47600029522144</v>
       </c>
       <c r="L2">
-        <v>10.40803754457155</v>
+        <v>6.511235892316137</v>
       </c>
       <c r="M2">
-        <v>15.90298431543088</v>
+        <v>10.7884744567279</v>
       </c>
       <c r="N2">
-        <v>23.27016272231283</v>
+        <v>15.68027525447569</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.51084573806486</v>
+        <v>14.01514482884864</v>
       </c>
       <c r="C3">
-        <v>4.652768619461256</v>
+        <v>7.479667416168835</v>
       </c>
       <c r="D3">
-        <v>8.004217635475538</v>
+        <v>5.608235063332828</v>
       </c>
       <c r="E3">
-        <v>10.18728975260468</v>
+        <v>5.995780714675623</v>
       </c>
       <c r="F3">
-        <v>39.08171923743665</v>
+        <v>30.24146699052682</v>
       </c>
       <c r="I3">
-        <v>32.26242961528229</v>
+        <v>22.71252336159258</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.56592547323185</v>
+        <v>11.79386298092184</v>
       </c>
       <c r="L3">
-        <v>10.41772352254618</v>
+        <v>6.430968113490485</v>
       </c>
       <c r="M3">
-        <v>15.89026421742997</v>
+        <v>10.47526216615974</v>
       </c>
       <c r="N3">
-        <v>23.32136920468548</v>
+        <v>15.8465557148074</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.41588974984381</v>
+        <v>13.47582355196054</v>
       </c>
       <c r="C4">
-        <v>4.479307964505526</v>
+        <v>7.135751392433794</v>
       </c>
       <c r="D4">
-        <v>8.007336526809727</v>
+        <v>5.634401343611139</v>
       </c>
       <c r="E4">
-        <v>10.19768113381811</v>
+        <v>6.003727514689456</v>
       </c>
       <c r="F4">
-        <v>39.05552495011164</v>
+        <v>29.81060490174798</v>
       </c>
       <c r="I4">
-        <v>32.28709074116808</v>
+        <v>22.6153239510675</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.49652669539644</v>
+        <v>11.36248139034225</v>
       </c>
       <c r="L4">
-        <v>10.42513447020948</v>
+        <v>6.384463896890405</v>
       </c>
       <c r="M4">
-        <v>15.88529043399297</v>
+        <v>10.28447218297007</v>
       </c>
       <c r="N4">
-        <v>23.35470868525066</v>
+        <v>15.95291921181251</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.37805888224996</v>
+        <v>13.25178766584344</v>
       </c>
       <c r="C5">
-        <v>4.406370221192251</v>
+        <v>6.991344827559527</v>
       </c>
       <c r="D5">
-        <v>8.008620847805497</v>
+        <v>5.645076835464941</v>
       </c>
       <c r="E5">
-        <v>10.20212056106499</v>
+        <v>6.007378595919359</v>
       </c>
       <c r="F5">
-        <v>39.04693701677872</v>
+        <v>29.63887880556212</v>
       </c>
       <c r="I5">
-        <v>32.29847254409292</v>
+        <v>22.57912265279075</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.46902004518511</v>
+        <v>11.18372759905536</v>
       </c>
       <c r="L5">
-        <v>10.42852285962408</v>
+        <v>6.366212571472055</v>
       </c>
       <c r="M5">
-        <v>15.88397935991169</v>
+        <v>10.20720219790059</v>
       </c>
       <c r="N5">
-        <v>23.36877271179199</v>
+        <v>15.99732262619198</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.3718305368675</v>
+        <v>13.21433678462227</v>
       </c>
       <c r="C6">
-        <v>4.394123872829045</v>
+        <v>6.967108175514131</v>
       </c>
       <c r="D6">
-        <v>8.008834918770487</v>
+        <v>5.646850565337925</v>
       </c>
       <c r="E6">
-        <v>10.20287010893349</v>
+        <v>6.008009587705002</v>
       </c>
       <c r="F6">
-        <v>39.04563714665295</v>
+        <v>29.610599092331</v>
       </c>
       <c r="I6">
-        <v>32.30044290319895</v>
+        <v>22.57331432689578</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.46450014566092</v>
+        <v>11.15387318381197</v>
       </c>
       <c r="L6">
-        <v>10.42910775522105</v>
+        <v>6.363224190020471</v>
       </c>
       <c r="M6">
-        <v>15.88380495520749</v>
+        <v>10.19440334690763</v>
       </c>
       <c r="N6">
-        <v>23.37113691341548</v>
+        <v>16.00475941163652</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.41537599349645</v>
+        <v>13.4728190449861</v>
       </c>
       <c r="C7">
-        <v>4.47833337693949</v>
+        <v>7.1338211562348</v>
       </c>
       <c r="D7">
-        <v>8.007353793388146</v>
+        <v>5.634545251936142</v>
       </c>
       <c r="E7">
-        <v>10.19774017550417</v>
+        <v>6.003775092217436</v>
       </c>
       <c r="F7">
-        <v>39.05540067611001</v>
+        <v>29.80827322496197</v>
       </c>
       <c r="I7">
-        <v>32.28723884804805</v>
+        <v>22.61482206189861</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.49615256043135</v>
+        <v>11.36008236397411</v>
       </c>
       <c r="L7">
-        <v>10.42517867535329</v>
+        <v>6.384214921155913</v>
       </c>
       <c r="M7">
-        <v>15.88526985115366</v>
+        <v>10.2834280262666</v>
       </c>
       <c r="N7">
-        <v>23.35489642189019</v>
+        <v>15.95351377845772</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.61500622883878</v>
+        <v>14.57547364100618</v>
       </c>
       <c r="C8">
-        <v>4.830098539612255</v>
+        <v>7.83219692976902</v>
       </c>
       <c r="D8">
-        <v>8.0009346990607</v>
+        <v>5.580324462328324</v>
       </c>
       <c r="E8">
-        <v>10.17690030058457</v>
+        <v>5.988730440773741</v>
       </c>
       <c r="F8">
-        <v>39.1167875664426</v>
+        <v>30.71415733183249</v>
       </c>
       <c r="I8">
-        <v>32.24067115670103</v>
+        <v>22.82817654329972</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.64254477777401</v>
+        <v>12.24350661245607</v>
       </c>
       <c r="L8">
-        <v>10.41107367539833</v>
+        <v>6.482982952765218</v>
       </c>
       <c r="M8">
-        <v>15.89801136932094</v>
+        <v>10.68021826990941</v>
       </c>
       <c r="N8">
-        <v>23.28742500113151</v>
+        <v>15.73671448450772</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.03041317888718</v>
+        <v>16.58953823736712</v>
       </c>
       <c r="C9">
-        <v>5.447225721337789</v>
+        <v>9.070242432539834</v>
       </c>
       <c r="D9">
-        <v>7.988756511359727</v>
+        <v>5.473487287193043</v>
       </c>
       <c r="E9">
-        <v>10.14246741738069</v>
+        <v>5.972785046033251</v>
       </c>
       <c r="F9">
-        <v>39.30251150559771</v>
+        <v>32.60538522579036</v>
       </c>
       <c r="I9">
-        <v>32.19147216718071</v>
+        <v>23.36160907453501</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.95178599548904</v>
+        <v>14.09876932820306</v>
       </c>
       <c r="L9">
-        <v>10.39501275510289</v>
+        <v>6.698683470187991</v>
       </c>
       <c r="M9">
-        <v>15.94537612566926</v>
+        <v>11.46653100800236</v>
       </c>
       <c r="N9">
-        <v>23.17015333071658</v>
+        <v>15.34614322111657</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.34746526711157</v>
+        <v>17.98140161626305</v>
       </c>
       <c r="C10">
-        <v>5.855514113362812</v>
+        <v>9.902605234663275</v>
       </c>
       <c r="D10">
-        <v>7.980048883276543</v>
+        <v>5.393850479859248</v>
       </c>
       <c r="E10">
-        <v>10.12106829534417</v>
+        <v>5.96980483642538</v>
       </c>
       <c r="F10">
-        <v>39.4782820849949</v>
+        <v>34.06000197413088</v>
       </c>
       <c r="I10">
-        <v>32.1810514585062</v>
+        <v>23.82951600272662</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.19062155000902</v>
+        <v>15.43364431147653</v>
       </c>
       <c r="L10">
-        <v>10.39026118279254</v>
+        <v>6.870508573012722</v>
       </c>
       <c r="M10">
-        <v>15.99362533723012</v>
+        <v>12.0446108495512</v>
       </c>
       <c r="N10">
-        <v>23.09312848792201</v>
+        <v>15.08146356908357</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.49367675634403</v>
+        <v>18.65537300344784</v>
       </c>
       <c r="C11">
-        <v>6.03136069479659</v>
+        <v>10.26523963590288</v>
       </c>
       <c r="D11">
-        <v>7.976137439966094</v>
+        <v>5.357168916895779</v>
       </c>
       <c r="E11">
-        <v>10.11217483216917</v>
+        <v>5.970456578630564</v>
       </c>
       <c r="F11">
-        <v>39.56663885232348</v>
+        <v>34.73508807220419</v>
       </c>
       <c r="I11">
-        <v>32.18190047364126</v>
+        <v>24.06012352027816</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.30138320636042</v>
+        <v>16.01288128338045</v>
       </c>
       <c r="L11">
-        <v>10.38962382720508</v>
+        <v>6.951561425619933</v>
       </c>
       <c r="M11">
-        <v>16.01844655295976</v>
+        <v>12.30688407346706</v>
       </c>
       <c r="N11">
-        <v>23.06006447103059</v>
+        <v>14.96622706296585</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.54927801328272</v>
+        <v>18.90612578704032</v>
       </c>
       <c r="C12">
-        <v>6.096522621389722</v>
+        <v>10.40032534981819</v>
       </c>
       <c r="D12">
-        <v>7.974663265944256</v>
+        <v>5.34319446478503</v>
       </c>
       <c r="E12">
-        <v>10.10892765713568</v>
+        <v>5.971001922943988</v>
       </c>
       <c r="F12">
-        <v>39.60128997984646</v>
+        <v>34.99260310930481</v>
       </c>
       <c r="I12">
-        <v>32.18302528627876</v>
+        <v>24.15010399121399</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.34359398046486</v>
+        <v>16.22829412464492</v>
       </c>
       <c r="L12">
-        <v>10.3896009694151</v>
+        <v>6.982668664653749</v>
       </c>
       <c r="M12">
-        <v>16.02825388437267</v>
+        <v>12.40604742435908</v>
       </c>
       <c r="N12">
-        <v>23.04782753356896</v>
+        <v>14.92336798879698</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.53729368363027</v>
+        <v>18.85231886493404</v>
       </c>
       <c r="C13">
-        <v>6.082552386139155</v>
+        <v>10.37133054828643</v>
       </c>
       <c r="D13">
-        <v>7.974980446411991</v>
+        <v>5.346208161620017</v>
       </c>
       <c r="E13">
-        <v>10.10962163705696</v>
+        <v>5.970871030853216</v>
       </c>
       <c r="F13">
-        <v>39.59377446976414</v>
+        <v>34.937059791385</v>
       </c>
       <c r="I13">
-        <v>32.18274732152745</v>
+        <v>24.13060538566887</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.33449180699859</v>
+        <v>16.18207439000975</v>
       </c>
       <c r="L13">
-        <v>10.38959618626667</v>
+        <v>6.975950743858021</v>
       </c>
       <c r="M13">
-        <v>16.02612363420489</v>
+        <v>12.38469839320852</v>
       </c>
       <c r="N13">
-        <v>23.050450364621</v>
+        <v>14.93256320775634</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.49824670394986</v>
+        <v>18.67609157087491</v>
       </c>
       <c r="C14">
-        <v>6.036750237594539</v>
+        <v>10.27639762992705</v>
       </c>
       <c r="D14">
-        <v>7.976016019210023</v>
+        <v>5.356021025476259</v>
       </c>
       <c r="E14">
-        <v>10.11190527047502</v>
+        <v>5.970495402160731</v>
       </c>
       <c r="F14">
-        <v>39.56946581824906</v>
+        <v>34.75623661587665</v>
       </c>
       <c r="I14">
-        <v>32.18197691706338</v>
+        <v>24.06747247858033</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.3048507547928</v>
+        <v>16.03068165482778</v>
       </c>
       <c r="L14">
-        <v>10.38961757188133</v>
+        <v>6.954112336266971</v>
       </c>
       <c r="M14">
-        <v>16.01924525946959</v>
+        <v>12.31504565048068</v>
       </c>
       <c r="N14">
-        <v>23.05905204699991</v>
+        <v>14.9626851956044</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.47435828370176</v>
+        <v>18.56756835181514</v>
       </c>
       <c r="C15">
-        <v>6.008509080215772</v>
+        <v>10.21795935364645</v>
       </c>
       <c r="D15">
-        <v>7.976651245459429</v>
+        <v>5.362020174239436</v>
       </c>
       <c r="E15">
-        <v>10.11331975500767</v>
+        <v>5.970304502682948</v>
       </c>
       <c r="F15">
-        <v>39.55473086490601</v>
+        <v>34.64572027564279</v>
       </c>
       <c r="I15">
-        <v>32.18160961685633</v>
+        <v>24.02915048896486</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.28672854159024</v>
+        <v>15.93744015455188</v>
       </c>
       <c r="L15">
-        <v>10.38965910420987</v>
+        <v>6.940789619455208</v>
       </c>
       <c r="M15">
-        <v>16.01508504545792</v>
+        <v>12.27235990982163</v>
       </c>
       <c r="N15">
-        <v>23.06435776150712</v>
+        <v>14.98123831460912</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.33794553951184</v>
+        <v>17.93672637473456</v>
       </c>
       <c r="C16">
-        <v>5.843822652250121</v>
+        <v>9.878589560454328</v>
       </c>
       <c r="D16">
-        <v>7.980305493217377</v>
+        <v>5.396237012509228</v>
       </c>
       <c r="E16">
-        <v>10.12166639820328</v>
+        <v>5.969803467385501</v>
       </c>
       <c r="F16">
-        <v>39.47267548008034</v>
+        <v>34.01614796568313</v>
       </c>
       <c r="I16">
-        <v>32.18110841784942</v>
+        <v>23.81481112706632</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.18342246244547</v>
+        <v>15.39523430761581</v>
       </c>
       <c r="L16">
-        <v>10.39033344938797</v>
+        <v>6.865269587305953</v>
       </c>
       <c r="M16">
-        <v>15.99206059660217</v>
+        <v>12.02745180369664</v>
       </c>
       <c r="N16">
-        <v>23.09532901369097</v>
+        <v>15.08910142765732</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.25473227284353</v>
+        <v>17.5780934046503</v>
       </c>
       <c r="C17">
-        <v>5.740256028934024</v>
+        <v>9.666341487190792</v>
       </c>
       <c r="D17">
-        <v>7.982559883858029</v>
+        <v>5.417098863230349</v>
       </c>
       <c r="E17">
-        <v>10.12700196212962</v>
+        <v>5.970017071677028</v>
       </c>
       <c r="F17">
-        <v>39.42447769505469</v>
+        <v>33.63330963823963</v>
       </c>
       <c r="I17">
-        <v>32.18223234306669</v>
+        <v>23.68793954193579</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.12056329490608</v>
+        <v>15.05550196115033</v>
       </c>
       <c r="L17">
-        <v>10.39113705548434</v>
+        <v>6.819679250711894</v>
       </c>
       <c r="M17">
-        <v>15.9786681243238</v>
+        <v>11.87698822394819</v>
       </c>
       <c r="N17">
-        <v>23.11483448443402</v>
+        <v>15.15661892260536</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.20705989357783</v>
+        <v>17.37236481441073</v>
       </c>
       <c r="C18">
-        <v>5.679756932961864</v>
+        <v>9.542750573920413</v>
       </c>
       <c r="D18">
-        <v>7.983861236152974</v>
+        <v>5.429056492002758</v>
       </c>
       <c r="E18">
-        <v>10.13015002791391</v>
+        <v>5.970328253256606</v>
       </c>
       <c r="F18">
-        <v>39.39754706446407</v>
+        <v>33.41437162178453</v>
       </c>
       <c r="I18">
-        <v>32.18340495094236</v>
+        <v>23.61663132590678</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.08460955379594</v>
+        <v>14.85745494829499</v>
       </c>
       <c r="L18">
-        <v>10.39174277504131</v>
+        <v>6.79372881476713</v>
       </c>
       <c r="M18">
-        <v>15.97123581623384</v>
+        <v>11.79038234182782</v>
       </c>
       <c r="N18">
-        <v>23.12623942610151</v>
+        <v>15.19593715867318</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.19095298147171</v>
+        <v>17.30235907585974</v>
       </c>
       <c r="C19">
-        <v>5.659113409033314</v>
+        <v>9.500643303261967</v>
       </c>
       <c r="D19">
-        <v>7.98430266094054</v>
+        <v>5.433098541058325</v>
       </c>
       <c r="E19">
-        <v>10.13122952100764</v>
+        <v>5.970465668487154</v>
       </c>
       <c r="F19">
-        <v>39.38856518894162</v>
+        <v>33.34046129511582</v>
       </c>
       <c r="I19">
-        <v>32.18389235104104</v>
+        <v>23.59277049993398</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.07247189031445</v>
+        <v>14.7899430671652</v>
       </c>
       <c r="L19">
-        <v>10.39197252799232</v>
+        <v>6.784989196801932</v>
       </c>
       <c r="M19">
-        <v>15.96876600028642</v>
+        <v>11.76105003349748</v>
       </c>
       <c r="N19">
-        <v>23.13013288354628</v>
+        <v>15.20933177119335</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.26357120492086</v>
+        <v>17.61600282949643</v>
       </c>
       <c r="C20">
-        <v>5.751377205552342</v>
+        <v>9.68909162383237</v>
       </c>
       <c r="D20">
-        <v>7.982319416118335</v>
+        <v>5.414882513696631</v>
       </c>
       <c r="E20">
-        <v>10.12642578895521</v>
+        <v>5.969974773144428</v>
       </c>
       <c r="F20">
-        <v>39.42952662381807</v>
+        <v>33.67393340139934</v>
       </c>
       <c r="I20">
-        <v>32.18205824612653</v>
+        <v>23.70127219546125</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.12723420023628</v>
+        <v>15.09193980995473</v>
       </c>
       <c r="L20">
-        <v>10.39103666250125</v>
+        <v>6.824504288806478</v>
       </c>
       <c r="M20">
-        <v>15.98006579544212</v>
+        <v>11.89301229385386</v>
       </c>
       <c r="N20">
-        <v>23.11273885497573</v>
+        <v>15.14938124378848</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.5097097991255</v>
+        <v>18.72797428117205</v>
       </c>
       <c r="C21">
-        <v>6.050242212418357</v>
+        <v>10.30434185456488</v>
       </c>
       <c r="D21">
-        <v>7.975711657399073</v>
+        <v>5.353141184681625</v>
       </c>
       <c r="E21">
-        <v>10.1112312422008</v>
+        <v>5.970597548907437</v>
       </c>
       <c r="F21">
-        <v>39.57657362819626</v>
+        <v>34.80929816257644</v>
       </c>
       <c r="I21">
-        <v>32.18218140740146</v>
+        <v>24.08594328170836</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.31355007411588</v>
+        <v>16.07525528336437</v>
       </c>
       <c r="L21">
-        <v>10.38960536631309</v>
+        <v>6.960515565501588</v>
       </c>
       <c r="M21">
-        <v>16.02125457140689</v>
+        <v>12.33550889356442</v>
       </c>
       <c r="N21">
-        <v>23.05651782753882</v>
+        <v>14.95381619866842</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.67191692635516</v>
+        <v>19.44961805276291</v>
       </c>
       <c r="C22">
-        <v>6.237246793382288</v>
+        <v>10.69344543000537</v>
       </c>
       <c r="D22">
-        <v>7.971433868372952</v>
+        <v>5.312290439563715</v>
       </c>
       <c r="E22">
-        <v>10.1020034287545</v>
+        <v>5.972749803430896</v>
       </c>
       <c r="F22">
-        <v>39.67961902022457</v>
+        <v>35.56224594904769</v>
       </c>
       <c r="I22">
-        <v>32.18694372269988</v>
+        <v>24.35286949301512</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.43686192659659</v>
+        <v>16.69504111379613</v>
       </c>
       <c r="L22">
-        <v>10.38994311624116</v>
+        <v>7.051821976798777</v>
       </c>
       <c r="M22">
-        <v>16.0505498100231</v>
+        <v>12.62379278454836</v>
       </c>
       <c r="N22">
-        <v>23.02142755720844</v>
+        <v>14.83056152119936</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.58523796788649</v>
+        <v>19.06681047507952</v>
       </c>
       <c r="C23">
-        <v>6.138201672313364</v>
+        <v>10.48693922586475</v>
       </c>
       <c r="D23">
-        <v>7.973713321793771</v>
+        <v>5.334145549133742</v>
       </c>
       <c r="E23">
-        <v>10.1068643094124</v>
+        <v>5.971437969253659</v>
       </c>
       <c r="F23">
-        <v>39.62399203833271</v>
+        <v>35.15939409859213</v>
       </c>
       <c r="I23">
-        <v>32.18397384482434</v>
+        <v>24.20895140791654</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.37091885319929</v>
+        <v>16.36630897934124</v>
       </c>
       <c r="L23">
-        <v>10.38964660076755</v>
+        <v>7.002869078152201</v>
       </c>
       <c r="M23">
-        <v>16.03469873142124</v>
+        <v>12.47002848064019</v>
       </c>
       <c r="N23">
-        <v>23.04000470438888</v>
+        <v>14.89591452167562</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.25957459640244</v>
+        <v>17.59887062254139</v>
       </c>
       <c r="C24">
-        <v>5.74635230289848</v>
+        <v>9.678811171821906</v>
       </c>
       <c r="D24">
-        <v>7.982428115122421</v>
+        <v>5.4158846364649</v>
       </c>
       <c r="E24">
-        <v>10.12668602583533</v>
+        <v>5.969993310294779</v>
       </c>
       <c r="F24">
-        <v>39.42724157559473</v>
+        <v>33.65556377831949</v>
       </c>
       <c r="I24">
-        <v>32.18213531537744</v>
+        <v>23.6952394272733</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.12421770542448</v>
+        <v>15.07547477011197</v>
       </c>
       <c r="L24">
-        <v>10.39108160245739</v>
+        <v>6.82232207896393</v>
       </c>
       <c r="M24">
-        <v>15.97943307563026</v>
+        <v>11.88576812650147</v>
       </c>
       <c r="N24">
-        <v>23.11368569405304</v>
+        <v>15.15265183883439</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.91575153478305</v>
+        <v>16.06136748223339</v>
       </c>
       <c r="C25">
-        <v>5.288155719959961</v>
+        <v>8.749111918993808</v>
       </c>
       <c r="D25">
-        <v>7.992008220991409</v>
+        <v>5.502525964773926</v>
       </c>
       <c r="E25">
-        <v>10.1510960593542</v>
+        <v>5.975600385362129</v>
       </c>
       <c r="F25">
-        <v>39.24531947206527</v>
+        <v>32.08199760959387</v>
       </c>
       <c r="I25">
-        <v>32.2002661831935</v>
+        <v>23.20437442201956</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.86594494381699</v>
+        <v>13.58175459242218</v>
       </c>
       <c r="L25">
-        <v>10.39811795454702</v>
+        <v>6.637980146420642</v>
       </c>
       <c r="M25">
-        <v>15.93018514185314</v>
+        <v>11.25344408002321</v>
       </c>
       <c r="N25">
-        <v>23.20027190510187</v>
+        <v>15.44799139003696</v>
       </c>
       <c r="O25">
         <v>0</v>
